--- a/pontos-por-funcao_ESTAGIO.xlsx
+++ b/pontos-por-funcao_ESTAGIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Preço do Software" sheetId="1" state="visible" r:id="rId2"/>
@@ -608,7 +608,7 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1201,15 +1201,15 @@
   </sheetPr>
   <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2226720647773"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.0364372469636"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1385,123 +1385,125 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="0" t="s">
+    <row r="24" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1519,12 +1521,12 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="86" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1539,7 +1541,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1981,7 +1983,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="86" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/pontos-por-funcao_ESTAGIO.xlsx
+++ b/pontos-por-funcao_ESTAGIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Preço do Software" sheetId="1" state="visible" r:id="rId2"/>
@@ -608,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,14 +756,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">D9*C9</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,14 +772,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">D10*C10</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,14 +788,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">D11*C11</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -856,14 +856,14 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">D15*C15</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,14 +872,14 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">D16*C16</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,7 +907,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="n">
         <f aca="false">SUM(E3:E17)</f>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +938,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -949,7 +949,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -971,7 +971,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1026,7 +1026,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1037,7 +1037,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1070,7 +1070,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1081,7 +1081,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1093,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="9" t="n">
         <f aca="false">SUM(E22:E35)</f>
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,7 +1114,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="11" t="n">
         <f aca="false">E18*(0.65+(0.01*E36))</f>
-        <v>55.44</v>
+        <v>69.62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,7 +1136,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="12" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,7 +1148,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="13" t="n">
         <f aca="false">(E39/E40)*E41</f>
-        <v>3411.69230769231</v>
+        <v>21421.5384615385</v>
       </c>
     </row>
   </sheetData>
@@ -1185,8 +1185,8 @@
     <mergeCell ref="A42:D42"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.133333333333333" right="0.299305555555556" top="0.181944444444444" bottom="0.181944444444444" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="90" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1201,7 +1201,7 @@
   </sheetPr>
   <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1541,8 +1541,8 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
